--- a/inst/shiny-examples/IEPAtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/IEPAtools/Extras/tables/Instruction_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/IEPAtools/inst/shiny-examples/IEPAtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="688" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12A5886E-ACB7-493B-93ED-C7EA0DE43A16}"/>
+  <xr:revisionPtr revIDLastSave="703" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{10871DBF-1701-4E30-807D-DF145BBEB27D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>Metric (abbrev)</t>
   </si>
@@ -165,15 +165,9 @@
     <t>TOLVAL</t>
   </si>
   <si>
-    <t>number ranging from 0-10</t>
-  </si>
-  <si>
     <t>Taxa with tolerance values ranging from 0 to 3 are considered 'intolerant' to anthropogenic disturbance and are included in the 'intolerant' metric calculations. Those with values ranging from 7 to 10 are included in the 'tolerant' metrics.</t>
   </si>
   <si>
-    <t>Only one allowable entry (IDEM_2017_Bugs or IDEM_2017_Fish).</t>
-  </si>
-  <si>
     <t>North, Central, South</t>
   </si>
   <si>
@@ -244,6 +238,18 @@
   </si>
   <si>
     <t>IEPA_2021_Bugs</t>
+  </si>
+  <si>
+    <t>Only one allowable entry (IEPA_2021_Bugs).</t>
+  </si>
+  <si>
+    <t>Letter-code for a given Illinois lake. Assigned by IEPA to all lakes.</t>
+  </si>
+  <si>
+    <t>Collection method. As of 2021, should be CompositeF.</t>
+  </si>
+  <si>
+    <t>number ranging from 1-10</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +305,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -312,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -337,6 +349,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A600CB5-0FBB-4C6F-ACC1-0B9BA1C4A60F}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,42 +667,42 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
+      <c r="E2" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>47</v>
+      <c r="E3" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
+      <c r="A4" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -694,9 +711,12 @@
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -706,12 +726,12 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -723,12 +743,12 @@
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -740,12 +760,12 @@
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -755,12 +775,12 @@
       <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -770,9 +790,12 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -782,12 +805,12 @@
       <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>49</v>
+      <c r="E10" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -799,12 +822,12 @@
       <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -816,12 +839,12 @@
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>50</v>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -833,12 +856,12 @@
       <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>51</v>
+      <c r="E13" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -848,9 +871,12 @@
       <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E14" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -860,9 +886,12 @@
       <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E15" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -872,12 +901,12 @@
       <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>52</v>
+      <c r="E16" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -887,12 +916,12 @@
       <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
-        <v>53</v>
+      <c r="E17" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -902,9 +931,12 @@
       <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E18" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -914,9 +946,12 @@
       <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E19" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -926,56 +961,59 @@
       <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E20" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="s">
-        <v>54</v>
+      <c r="E21" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>58</v>
+      <c r="E23" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1010,57 +1048,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/IEPAtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/IEPAtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/IEPAtools/inst/shiny-examples/IEPAtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="703" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{10871DBF-1701-4E30-807D-DF145BBEB27D}"/>
+  <xr:revisionPtr revIDLastSave="755" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BBB6D777-E2AE-4800-AD89-68BF91649A91}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Metric (abbrev)</t>
   </si>
@@ -195,48 +195,9 @@
     <t>Primary Functional Feeding Group. Choose from, can have multiple entries separated by comma: collector-gatherer (CG), collector-filterer (CF), predator (PR), scraper (SC), or shredder (SH).</t>
   </si>
   <si>
-    <t>HABIT</t>
-  </si>
-  <si>
     <t>CG, CF, PR, SC, SH (select mutiple)</t>
   </si>
   <si>
-    <t>SW, CN, SP, CB, BU (select multiple)</t>
-  </si>
-  <si>
-    <t>Priamry insect habits. Choose from, can have multiple entries separated by comma: Swimmers (SW), Clingers (CN), Sprawlers (SP), Climbers (CB), Burrowers (BU)</t>
-  </si>
-  <si>
-    <t>Number of ECT taxa (nt_ECT)</t>
-  </si>
-  <si>
-    <t>100*(metric-2)/8</t>
-  </si>
-  <si>
-    <t>% Diptera individuals (pi_Dipt)</t>
-  </si>
-  <si>
-    <t>100*(92.2-metric)/83.4</t>
-  </si>
-  <si>
-    <t>% Filterer individuals (pi_ffg_filt)</t>
-  </si>
-  <si>
-    <t>100*(65.5-metric)/65</t>
-  </si>
-  <si>
-    <t>Number of Climber taxa (nt_habit_climb)</t>
-  </si>
-  <si>
-    <t>100*(metric-3)/11</t>
-  </si>
-  <si>
-    <t>% Tolerant individuals (pi_tv_toler)</t>
-  </si>
-  <si>
-    <t>100*(80.6-metric)/70.7</t>
-  </si>
-  <si>
     <t>IEPA_2021_Bugs</t>
   </si>
   <si>
@@ -250,12 +211,51 @@
   </si>
   <si>
     <t>number ranging from 1-10</t>
+  </si>
+  <si>
+    <t>% Ephemeroptera, Plecoptera, and Trichoptera taxa (pt_EPT)</t>
+  </si>
+  <si>
+    <t>100*[(metric - 2.8)/15.3]</t>
+  </si>
+  <si>
+    <t>% Odonata taxa (pt_Odon)</t>
+  </si>
+  <si>
+    <t>100*[(metric - 0)/18.1]</t>
+  </si>
+  <si>
+    <t>% Tanypodinae of Family Chironomidae (pi_Tanyp2Chi)</t>
+  </si>
+  <si>
+    <t>100*[(metric - 0.6)/56.3]</t>
+  </si>
+  <si>
+    <t>100*[(78.9 - metric)/71.3]</t>
+  </si>
+  <si>
+    <t>100*[(18.9 - metric)/15.1]</t>
+  </si>
+  <si>
+    <t>% Tolerant Individuals (pi_tv_toler)</t>
+  </si>
+  <si>
+    <t>% Shredder taxa (pt_ffg_shred)</t>
+  </si>
+  <si>
+    <t>95th percentile</t>
+  </si>
+  <si>
+    <t>5th percentile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -354,6 +354,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A600CB5-0FBB-4C6F-ACC1-0B9BA1C4A60F}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,13 +675,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
@@ -990,30 +991,13 @@
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1023,19 +1007,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,61 +1027,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>59</v>
+      <c r="C2" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="D2" s="13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>56.9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C5" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="D5" s="13">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E5" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="D6" s="13">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E6" t="s">
         <v>66</v>
       </c>
     </row>
